--- a/biology/Mycologie/Liste_des_espèces_de_Penicillium/Liste_des_espèces_de_Penicillium.xlsx
+++ b/biology/Mycologie/Liste_des_espèces_de_Penicillium/Liste_des_espèces_de_Penicillium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page recense les espèces du genre Penicillium qui en compte plus de 300.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,58 +523,60 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium abidjanum[1]
-Penicillium adametzii[1]
-Penicillium adametzioides[1]
-Penicillium aeris[2]
-Penicillium aethiopicum[1]
-Penicillium albicans[1]
-Penicillium albidum[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium abidjanum
+Penicillium adametzii
+Penicillium adametzioides
+Penicillium aeris
+Penicillium aethiopicum
+Penicillium albicans
+Penicillium albidum
 Penicillium albocoremium
-Penicillium alexiae[3]
-Penicillium alfredii[4]
-Penicillium alicantinum[3]
-Penicillium allahabadense[5]
+Penicillium alexiae
+Penicillium alfredii
+Penicillium alicantinum
+Penicillium allahabadense
 Penicillium allii
-Penicillium allii-sativi[3]
-Penicillium alogum[2]
-Penicillium alutaceum[1]
-Penicillium anatolicum[1]
-Penicillium amagasakiense[3]
-Penicillium amaliae[3]
-Penicillium amphipolaria[2]
-Penicillium anatolicum[3]
-Penicillium angulare[3]
-Penicillium angustiporcatum[1]
-Penicillium antarcticum[3]
-Penicillium annulatum[2]
-Penicillium aotearoae[2]
-Penicillium araracuarense[3]
-Penicillium ardesiacum[3]
-Penicillium arenicola[3]
-Penicillium aragonense[1]
-Penicillium arianeae[3]
-Penicillium ardesiacum[1]
-Penicillium arenicola[1]
+Penicillium allii-sativi
+Penicillium alogum
+Penicillium alutaceum
+Penicillium anatolicum
+Penicillium amagasakiense
+Penicillium amaliae
+Penicillium amphipolaria
+Penicillium anatolicum
+Penicillium angulare
+Penicillium angustiporcatum
+Penicillium antarcticum
+Penicillium annulatum
+Penicillium aotearoae
+Penicillium araracuarense
+Penicillium ardesiacum
+Penicillium arenicola
+Penicillium aragonense
+Penicillium arianeae
+Penicillium ardesiacum
+Penicillium arenicola
 Penicillium argentinense
-Penicillium armarii[4]
-Penicillium astrolabium[3]
-Penicillium asturianum[1]
-Penicillium atramentosum[1]
-Penicillium athertonense[4]
-Penicillium atrolazulinum[2]
-Penicillium attenuatum[2]
-Penicillium atrosanguineum[1]
-Penicillium atrovenetum[1]
-Penicillium austricola[2]
-Penicillium aurantiacobrunneum[4]
-Penicillium aurantiogriseum[1]
-Penicillium aureocephalum[1]
-Penicillium austroafricanum[4]
-Penicillium austrosinicum[2]
+Penicillium armarii
+Penicillium astrolabium
+Penicillium asturianum
+Penicillium atramentosum
+Penicillium athertonense
+Penicillium atrolazulinum
+Penicillium attenuatum
+Penicillium atrosanguineum
+Penicillium atrovenetum
+Penicillium austricola
+Penicillium aurantiacobrunneum
+Penicillium aurantiogriseum
+Penicillium aureocephalum
+Penicillium austroafricanum
+Penicillium austrosinicum
 </t>
         </is>
       </c>
@@ -573,7 +587,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -591,25 +605,27 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium bilaiae[1]
-Penicillium bissettii[6]
-Penicillium boreae[1]
-Penicillium bovifimosum[3]
-Penicillium brasilianum[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium bilaiae
+Penicillium bissettii
+Penicillium boreae
+Penicillium bovifimosum
+Penicillium brasilianum
 Penicillium brasiliense
-Penicillium brefeldianum[3]
-Penicillium brevicompactum[1]
-Penicillium brevissimum[1]
-Penicillium brevistipitatum[3]
-Penicillium brocae[1]
-Penicillium brunneoconidiatum[4]
-Penicillium brunneum[1]
-Penicillium buchwaldii[3]
-Penicillium burgense[3]
-Penicillium bussumense[4]
+Penicillium brefeldianum
+Penicillium brevicompactum
+Penicillium brevissimum
+Penicillium brevistipitatum
+Penicillium brocae
+Penicillium brunneoconidiatum
+Penicillium brunneum
+Penicillium buchwaldii
+Penicillium burgense
+Penicillium bussumense
 </t>
         </is>
       </c>
@@ -620,7 +636,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -638,72 +654,74 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium caerulescens[1]
-Penicillium cainii[3]
-Penicillium cairnsense[3]
-Penicillium calidicanium[1]
-Penicillium camemberti[1]
-Penicillium camponotum[7]
-Penicillium canariense[1]
-Penicillium canescens[1]
-Penicillium canis[4]
-Penicillium cantabricum[7]
-Penicillium caperatum[3]
-Penicillium capsulatum[1]
-Penicillium carneum[1]
-Penicillium cartierense[4]
-Penicillium caseifulvum[3]
-Penicillium catalonicum[7]
-Penicillium cataractarum[7]
-Penicillium catenatum[1]
-Penicillium cavernicola[3]
-Penicillium cecidicola[3]
-Penicillium cellarum[7]
-Penicillium chalabudae[7]
-Penicillium chalybeum[1]
-Penicillium charlesii[3]
-Penicillium chermesinum[1]
-Penicillium choerospondiatis[7]
-Penicillium christenseniae[3]
-Penicillium chroogomphum[7]
-Penicillium chrysogenum[1]
-Penicillium cinnamopurpureum[3]
-Penicillium citrinum[1]
-Penicillium citrioviride[3]
-Penicillium clavigerum[3]
-Penicillium clavistipitatum[4]
-Penicillium claviforme[1]
-Penicillium cluniae[4]
-Penicillium coalescens[1]
-Penicillium coccotrypicola[4]
-Penicillium coeruleum[1]
-Penicillium coffeae[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium caerulescens
+Penicillium cainii
+Penicillium cairnsense
+Penicillium calidicanium
+Penicillium camemberti
+Penicillium camponotum
+Penicillium canariense
+Penicillium canescens
+Penicillium canis
+Penicillium cantabricum
+Penicillium caperatum
+Penicillium capsulatum
+Penicillium carneum
+Penicillium cartierense
+Penicillium caseifulvum
+Penicillium catalonicum
+Penicillium cataractarum
+Penicillium catenatum
+Penicillium cavernicola
+Penicillium cecidicola
+Penicillium cellarum
+Penicillium chalabudae
+Penicillium chalybeum
+Penicillium charlesii
+Penicillium chermesinum
+Penicillium choerospondiatis
+Penicillium christenseniae
+Penicillium chroogomphum
+Penicillium chrysogenum
+Penicillium cinnamopurpureum
+Penicillium citrinum
+Penicillium citrioviride
+Penicillium clavigerum
+Penicillium clavistipitatum
+Penicillium claviforme
+Penicillium cluniae
+Penicillium coalescens
+Penicillium coccotrypicola
+Penicillium coeruleum
+Penicillium coffeae
 Penicillium columnare
-Penicillium commune[1]
-Penicillium compactum[7]
-Penicillium concentricum[3]
-Penicillium confertum[3]
-Penicillium contaminatum[4]
-Penicillium coprobium[1]
-Penicillium coprophilum[1]
-Penicillium copticola[3]
-Penicillium coralligerum[3]
-Penicillium corylophilum[1]
-Penicillium corynephorum[1]
-Penicillium corvianum[7]
-Penicillium cosmopolitanum[3]
-Penicillium cremeogriseum[3]
-Penicillium crustosum[1]
-Penicillium cryptum[3]
-Penicillium crystallinum[4]
-Penicillium costaricense[7]
-Penicillium cravenianum[7]
-Penicillium curticaule[7]
-Penicillium cvjetkovicii[7]
-Penicillium cyaneum[1]
+Penicillium commune
+Penicillium compactum
+Penicillium concentricum
+Penicillium confertum
+Penicillium contaminatum
+Penicillium coprobium
+Penicillium coprophilum
+Penicillium copticola
+Penicillium coralligerum
+Penicillium corylophilum
+Penicillium corynephorum
+Penicillium corvianum
+Penicillium cosmopolitanum
+Penicillium cremeogriseum
+Penicillium crustosum
+Penicillium cryptum
+Penicillium crystallinum
+Penicillium costaricense
+Penicillium cravenianum
+Penicillium curticaule
+Penicillium cvjetkovicii
+Penicillium cyaneum
 </t>
         </is>
       </c>
@@ -714,7 +732,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -732,28 +750,30 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium daejeonium[4]
-Penicillium daleae[3]
-Penicillium decaturense[3]
-Penicillium decumbens[1]
-Penicillium dendriticum[1]
-Penicillium desertorum[3]
-Penicillium diabolicalicense[8]
-Penicillium dierckxii[1]
-Penicillium digitatum[1]
-Penicillium dimorphosporum[1]
-Penicillium dipodomyicola[3]
-Penicillium dipodomyis[3]
-Penicillium discolor[1]
-Penicillium diversum[1]
-Penicillium dodgei[1]
-Penicillium donkii[1]
-Penicillium dravuni[1]
-Penicillium duclauxii[1]
-Penicillium dunedinense[4]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium daejeonium
+Penicillium daleae
+Penicillium decaturense
+Penicillium decumbens
+Penicillium dendriticum
+Penicillium desertorum
+Penicillium diabolicalicense
+Penicillium dierckxii
+Penicillium digitatum
+Penicillium dimorphosporum
+Penicillium dipodomyicola
+Penicillium dipodomyis
+Penicillium discolor
+Penicillium diversum
+Penicillium dodgei
+Penicillium donkii
+Penicillium dravuni
+Penicillium duclauxii
+Penicillium dunedinense
 </t>
         </is>
       </c>
@@ -764,7 +784,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -782,19 +802,21 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium echinulatum[1]
-Penicillium elleniae[4]
-Penicillium ellipsoideosporum[3]
-Penicillium emmonsii[1]
-Penicillium erubescens[1]
-Penicillium euglaucum[3]
-Penicillium erythromellis[1]
-Penicillium estinogenum[4]
-Penicillium excelsum[9]
-Penicillium expansum[1]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium echinulatum
+Penicillium elleniae
+Penicillium ellipsoideosporum
+Penicillium emmonsii
+Penicillium erubescens
+Penicillium euglaucum
+Penicillium erythromellis
+Penicillium estinogenum
+Penicillium excelsum
+Penicillium expansum
 </t>
         </is>
       </c>
@@ -805,7 +827,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -823,23 +845,25 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium fasciculatum[1]
-Penicillium fennelliae[1]
-Penicillium fimorum[10]
-Penicillium flavescens[3]
-Penicillium flavidostipitatum[1]
-Penicillium flavigenum[1]
-Penicillium flavisclerotiatum[4]
-Penicillium fluviserpens[10]
-Penicillium formosanum[1]
-Penicillium fractum[1]
-Penicillium freii[1]
-Penicillium funiculosum[1]
-Penicillium fundyense[10]
-Penicillium fusisporum[4]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium fasciculatum
+Penicillium fennelliae
+Penicillium fimorum
+Penicillium flavescens
+Penicillium flavidostipitatum
+Penicillium flavigenum
+Penicillium flavisclerotiatum
+Penicillium fluviserpens
+Penicillium formosanum
+Penicillium fractum
+Penicillium freii
+Penicillium funiculosum
+Penicillium fundyense
+Penicillium fusisporum
 </t>
         </is>
       </c>
@@ -850,7 +874,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -868,27 +892,29 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium georgiense[3]
-Penicillium giganteum[3]
-Penicillium gladioli[1]
-Penicillium glabrum[3]
-Penicillium glandicola[3]
-Penicillium glaucoalbidum[3]
-Penicillium glaucum[1]
-Penicillium glycyrrhizacola[4]
-Penicillium goetzii[3]
-Penicillium gossypii[1]
-Penicillium gorlenkoanum[3]
-Penicillium gracilentum[1]
-Penicillium grevilleicola[4]
-Penicillium griseofulvum[1]
-Penicillium griseolum[1]
-Penicillium griseopurpureum[4]
-Penicillium griseum[3]
-Penicillium guanacastense[3]
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium georgiense
+Penicillium giganteum
+Penicillium gladioli
+Penicillium glabrum
+Penicillium glandicola
+Penicillium glaucoalbidum
+Penicillium glaucum
+Penicillium glycyrrhizacola
+Penicillium goetzii
+Penicillium gossypii
+Penicillium gorlenkoanum
+Penicillium gracilentum
+Penicillium grevilleicola
+Penicillium griseofulvum
+Penicillium griseolum
+Penicillium griseopurpureum
+Penicillium griseum
+Penicillium guanacastense
 </t>
         </is>
       </c>
@@ -899,7 +925,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -917,25 +943,27 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium halotolerans[3]
-Penicillium hemitrachum[11]
-Penicillium hennebertii[4]
-Penicillium herquei[1]
-Penicillium heteringtonii[3]
-Penicillium heteromorphum[1]
-Penicillium hetheringtonii[3]
-Penicillium hirayamae[3]
-Penicillium hirsutum[3]
-Penicillium hispanicum[1]
-Penicillium humicola[12]
-Penicillium hoeksii[4]
-Penicillium hordei[1]
-Penicillium humicoloides[3]
-Penicillium humuli[1]
-Penicillium hypomycetis[1]
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium halotolerans
+Penicillium hemitrachum
+Penicillium hennebertii
+Penicillium herquei
+Penicillium heteringtonii
+Penicillium heteromorphum
+Penicillium hetheringtonii
+Penicillium hirayamae
+Penicillium hirsutum
+Penicillium hispanicum
+Penicillium humicola
+Penicillium hoeksii
+Penicillium hordei
+Penicillium humicoloides
+Penicillium humuli
+Penicillium hypomycetis
 </t>
         </is>
       </c>
@@ -946,7 +974,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -964,25 +992,27 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium ianthinellum[3]
-Penicillium idahoense[3]
-Penicillium implicatum[1]
-Penicillium improvisum[13]
-Penicillium incoloratum[1]
-Penicillium indonesiae[3]
-Penicillium inflatum[1]
-Penicillium intermedium[1]
-Penicillium infra-aurantiacum[4]
-Penicillium infrabuccalum[13]
-Penicillium infrapurpureum[4]
-Penicillium imranianum [14]
-Penicillium inusitatum[1]
-Penicillium isariiforme[1]
-Penicillium islandicum[1]
-Penicillium italicum[1]
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium ianthinellum
+Penicillium idahoense
+Penicillium implicatum
+Penicillium improvisum
+Penicillium incoloratum
+Penicillium indonesiae
+Penicillium inflatum
+Penicillium intermedium
+Penicillium infra-aurantiacum
+Penicillium infrabuccalum
+Penicillium infrapurpureum
+Penicillium imranianum 
+Penicillium inusitatum
+Penicillium isariiforme
+Penicillium islandicum
+Penicillium italicum
 </t>
         </is>
       </c>
@@ -993,7 +1023,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1011,18 +1041,20 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium jacksonii[3]
-Penicillium jamesonlandense[3]
-Penicillium janczewskii[1]
-Penicillium javanicum[3]
-Penicillium jejuense[15]
-Penicillium jensenii[1]
-Penicillium jiangxiense[4]
-Penicillium johnkrugii[3]
-Penicillium jugoslavicum[3]
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium jacksonii
+Penicillium jamesonlandense
+Penicillium janczewskii
+Penicillium javanicum
+Penicillium jejuense
+Penicillium jensenii
+Penicillium jiangxiense
+Penicillium johnkrugii
+Penicillium jugoslavicum
 </t>
         </is>
       </c>
@@ -1033,7 +1065,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1051,17 +1083,19 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium kananaskense[1]
-Penicillium kenraperi[1]
-Penicillium kiamaense[4]
-Penicillium klebahnii[1]
-Penicillium kloeckeri[1]
-Penicillium kojigenum[3]
-Penicillium kongii[3]
-Penicillium koreense[16]
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium kananaskense
+Penicillium kenraperi
+Penicillium kiamaense
+Penicillium klebahnii
+Penicillium kloeckeri
+Penicillium kojigenum
+Penicillium kongii
+Penicillium koreense
 </t>
         </is>
       </c>
@@ -1072,7 +1106,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1090,24 +1124,26 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium lacus-sarmientei[1]
-Penicillium laeve[4]
-Penicillium lapatayae[1]
-Penicillium lapidosum[1]
-Penicillium lassenii[1]
-Penicillium lemhiflumine[17]
-Penicillium lehmanii[1]
-Penicillium lenticrescens[4]
-Penicillium levitum[3]
-Penicillium lignorum[1]
-Penicillium limosum[1]
-Penicillium lineatum[1]
-Penicillium loliense[1]
-Penicillium longicatenatum[4]
-Penicillium ludwigii[1]
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium lacus-sarmientei
+Penicillium laeve
+Penicillium lapatayae
+Penicillium lapidosum
+Penicillium lassenii
+Penicillium lemhiflumine
+Penicillium lehmanii
+Penicillium lenticrescens
+Penicillium levitum
+Penicillium lignorum
+Penicillium limosum
+Penicillium lineatum
+Penicillium loliense
+Penicillium longicatenatum
+Penicillium ludwigii
 </t>
         </is>
       </c>
@@ -1118,7 +1154,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1136,41 +1172,43 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium macrosclerotiorum[3]
-Penicillium maclennaniae[1]
-Penicillium madriti[1]
-Penicillium magnielliptisporum[4]
-Penicillium malacaense[1]
-Penicillium malacosphaerulum[18]
-Penicillium mallochii[3]
-Penicillium malmesburiense[4]
-Penicillium mariae-crucis[1]
-Penicillium marinum[3]
-Penicillium marthae-christensenia[18]
-Penicillium marneffei[1]
-Penicillium maximae[3]
-Penicillium megasporum[1]
-Penicillium melanoconidium[1]
-Penicillium melinii[1]
-Penicillium menonorum[3]
-Penicillium meloforme[1]
-Penicillium meridianum[3]
-Penicillium mexicanum[4]
-Penicillium miczynskii[1]
-Penicillium momoii[18]
-Penicillium mimosinum[1]
-Penicillium minioluteum[1]
-Penicillium moldavicum[1]
-Penicillium molle[1]
-Penicillium mononematosum[3]
-Penicillium monsgalena[18]
-Penicillium monsserratidens[18]
-Penicillium montanense[1]
-Penicillium multicolor[1]
-Penicillium murcianum[1]
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium macrosclerotiorum
+Penicillium maclennaniae
+Penicillium madriti
+Penicillium magnielliptisporum
+Penicillium malacaense
+Penicillium malacosphaerulum
+Penicillium mallochii
+Penicillium malmesburiense
+Penicillium mariae-crucis
+Penicillium marinum
+Penicillium marthae-christensenia
+Penicillium marneffei
+Penicillium maximae
+Penicillium megasporum
+Penicillium melanoconidium
+Penicillium melinii
+Penicillium menonorum
+Penicillium meloforme
+Penicillium meridianum
+Penicillium mexicanum
+Penicillium miczynskii
+Penicillium momoii
+Penicillium mimosinum
+Penicillium minioluteum
+Penicillium moldavicum
+Penicillium molle
+Penicillium mononematosum
+Penicillium monsgalena
+Penicillium monsserratidens
+Penicillium montanense
+Penicillium multicolor
+Penicillium murcianum
 </t>
         </is>
       </c>
@@ -1181,7 +1219,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1199,21 +1237,23 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium nalgiovense[1]
-Penicillium neocrassum[3]
-Penicillium neoechinulatum[1]
-Penicillium neomiczynskii[3]
-Penicillium nepalense[1]
-Penicillium nilense[1]
-Penicillium nodositatum[1]
-Penicillium nodulum[1]
-Penicillium nordicum[3]
-Penicillium nothofagi[3]
-Penicillium novae-zelandiae[1]
-Penicillium nucicola[19]
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium nalgiovense
+Penicillium neocrassum
+Penicillium neoechinulatum
+Penicillium neomiczynskii
+Penicillium nepalense
+Penicillium nilense
+Penicillium nodositatum
+Penicillium nodulum
+Penicillium nordicum
+Penicillium nothofagi
+Penicillium novae-zelandiae
+Penicillium nucicola
 </t>
         </is>
       </c>
@@ -1224,7 +1264,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1242,23 +1282,25 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium ochotense[20]
-Penicillium oblatum[1]
-Penicillium occitanis[3]
-Penicillium ochrochloron[1]
-Penicillium ochrosalmoneum[1]
-Penicillium olsonii[1]
-Penicillium onobense[1]
-Penicillium oregonense[20]
-Penicillium ootensis[1]
-Penicillium ornatum[1]
-Penicillium ortum[20]
-Penicillium osmophilum[1]
-Penicillium ovatum[4]
-Penicillium oxalicum[1]
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium ochotense
+Penicillium oblatum
+Penicillium occitanis
+Penicillium ochrochloron
+Penicillium ochrosalmoneum
+Penicillium olsonii
+Penicillium onobense
+Penicillium oregonense
+Penicillium ootensis
+Penicillium ornatum
+Penicillium ortum
+Penicillium osmophilum
+Penicillium ovatum
+Penicillium oxalicum
 </t>
         </is>
       </c>
@@ -1269,7 +1311,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1287,48 +1329,50 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium pagulum[21]
-Penicillium pachmariensis[1]
-Penicillium palitans[1]
-Penicillium palmae[1]
-Penicillium panamense[1]
-Penicillium pancosmium[3]
-Penicillium paneum[1]
-Penicillium panissanguineum[21]
-Penicillium paradoxum[4]
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium pagulum
+Penicillium pachmariensis
+Penicillium palitans
+Penicillium palmae
+Penicillium panamense
+Penicillium pancosmium
+Penicillium paneum
+Penicillium panissanguineum
+Penicillium paradoxum
 Penicillium parviverrucosum
-Penicillium parvofructum[21]
-Penicillium parvulum[3]
-Penicillium parvum[3]
-Penicillium pasqualense[3]
-Penicillium parmonense[1]
-Penicillium patens[1]
-Penicillium paxilli[1]
-Penicillium pedernalense[21]
-Penicillium penarojense[4]
-Penicillium persicinum[3]
-Penicillium philippinense[3]
-Penicillium phoeniceum[1]
-Penicillium piltunense[21]
-Penicillium piceum[1]
-Penicillium pimiteouiense[1]
-Penicillium pinophilum[1]
-Penicillium pinsaporum[1]
-Penicillium polonicum[1]
-Penicillium primulinum[1]
-Penicillium proteolyticum[1]
-Penicillium pseudostromaticum[1]
-Penicillium psychrosexualis[3]
-Penicillium pullum[1]
-Penicillium pulvis[4]
-Penicillium punicae[21]
-Penicillium punicae[3]
-Penicillium purpurescens[1]
-Penicillium purpureum[1]
-Penicillium purpurogenum[1]
+Penicillium parvofructum
+Penicillium parvulum
+Penicillium parvum
+Penicillium pasqualense
+Penicillium parmonense
+Penicillium patens
+Penicillium paxilli
+Penicillium pedernalense
+Penicillium penarojense
+Penicillium persicinum
+Penicillium philippinense
+Penicillium phoeniceum
+Penicillium piltunense
+Penicillium piceum
+Penicillium pimiteouiense
+Penicillium pinophilum
+Penicillium pinsaporum
+Penicillium polonicum
+Penicillium primulinum
+Penicillium proteolyticum
+Penicillium pseudostromaticum
+Penicillium psychrosexualis
+Penicillium pullum
+Penicillium pulvis
+Penicillium punicae
+Penicillium punicae
+Penicillium purpurescens
+Penicillium purpureum
+Penicillium purpurogenum
 </t>
         </is>
       </c>
@@ -1339,7 +1383,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1357,11 +1401,13 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium qii[3]
-Penicillium quebecense[3]
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium qii
+Penicillium quebecense
 </t>
         </is>
       </c>
@@ -1372,7 +1418,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1390,34 +1436,36 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium raciborskii[3]
-Penicillium rademirici[1]
-Penicillium radicicola[3]
-Penicillium radicum[1]
-Penicillium raistrickii[1]
-Penicillium ramusculum[3]
-Penicillium ranomafanaense[4]
-Penicillium raphiae[3]
-Penicillium repensicola[22]
-Penicillium rasile[1]
-Penicillium resedanum[1]
-Penicillium resticulosum[1]
-Penicillium restingae[4]
-Penicillium restrictum[1]
-Penicillium ribium[3]
-Penicillium riverlandense[22]
-Penicillium robsamsonii[22]
-Penicillium rolfsii[1]
-Penicillium roqueforti[1]
-Penicillium roseopurpureum[1]
-Penicillium rubefaciens[1]
-Penicillium rubidurum[1]
-Penicillium rubrum[1]
-Penicillium rudallense[4]
-Penicillium rugulosum[1]
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium raciborskii
+Penicillium rademirici
+Penicillium radicicola
+Penicillium radicum
+Penicillium raistrickii
+Penicillium ramusculum
+Penicillium ranomafanaense
+Penicillium raphiae
+Penicillium repensicola
+Penicillium rasile
+Penicillium resedanum
+Penicillium resticulosum
+Penicillium restingae
+Penicillium restrictum
+Penicillium ribium
+Penicillium riverlandense
+Penicillium robsamsonii
+Penicillium rolfsii
+Penicillium roqueforti
+Penicillium roseopurpureum
+Penicillium rubefaciens
+Penicillium rubidurum
+Penicillium rubrum
+Penicillium rudallense
+Penicillium rugulosum
 </t>
         </is>
       </c>
@@ -1428,7 +1476,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1446,53 +1494,55 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium sabulosum[1]
-Penicillium sacculum[4]
-Penicillium sajarovii[1]
-Penicillium salamii[23]
-Penicillium salmoniflumin[24]
-Penicillium samsonianum[24]
-Penicillium sanguifluum[3]
-Penicillium sanshaense[24]
-Penicillium saturniforme[3]
-Penicillium scabrosum[1]
-Penicillium sclerotigenum[1]
-Penicillium senticosum[1]
-Penicillium severskii[1]
-Penicillium shennonghianum[1]
-Penicillium siamense[1]
-Penicillium simile[3]
-Penicillium simplicissimum[1]
-Penicillium sinaicum[1]
-Penicillium singorense[4]
-Penicillium sizovae[3]
-Penicillium skrjabinii[3]
-Penicillium smithii[1]
-Penicillium solitum[1]
-Penicillium soppii[3]
-Penicillium spathulatum[3]
-Penicillium sphaerum[1]
-Penicillium spinulosum[1]
-Penicillium spirillum[1]
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium sabulosum
+Penicillium sacculum
+Penicillium sajarovii
+Penicillium salamii
+Penicillium salmoniflumin
+Penicillium samsonianum
+Penicillium sanguifluum
+Penicillium sanshaense
+Penicillium saturniforme
+Penicillium scabrosum
+Penicillium sclerotigenum
+Penicillium senticosum
+Penicillium severskii
+Penicillium shennonghianum
+Penicillium siamense
+Penicillium simile
+Penicillium simplicissimum
+Penicillium sinaicum
+Penicillium singorense
+Penicillium sizovae
+Penicillium skrjabinii
+Penicillium smithii
+Penicillium solitum
+Penicillium soppii
+Penicillium spathulatum
+Penicillium sphaerum
+Penicillium spinulosum
+Penicillium spirillum
 Penicillium steckii
-Penicillium sterculiniicola[4]
-Penicillium striatisporum[3]
-Penicillium stolkiae[1]
-Penicillium subarcticum[1]
-Penicillium subericola[3]
-Penicillium sublateritium[1]
-Penicillium sublectaticum[4]
-Penicillium subrubescens[3]
-Penicillium subspinulosum[4]
-Penicillium subturcoseum[24]
-Penicillium subtile[1]
-Penicillium sucrivorum[4]
-Penicillium sumatrense[3]
-Penicillium svalbardense[3]
-Penicillium sylvaticum[3]
+Penicillium sterculiniicola
+Penicillium striatisporum
+Penicillium stolkiae
+Penicillium subarcticum
+Penicillium subericola
+Penicillium sublateritium
+Penicillium sublectaticum
+Penicillium subrubescens
+Penicillium subspinulosum
+Penicillium subturcoseum
+Penicillium subtile
+Penicillium sucrivorum
+Penicillium sumatrense
+Penicillium svalbardense
+Penicillium sylvaticum
 </t>
         </is>
       </c>
@@ -1503,7 +1553,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1521,26 +1571,28 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium tanzanicum[25]
-Penicillium tardochrysogenum[3]
-Penicillium tardum[3]
-Penicillium tarraconense[1]
-Penicillium terrenum[3]
-Penicillium terrigenum[3]
-Penicillium thiersii[3]
-Penicillium thomii[1]
-Penicillium thymicola[1]
-Penicillium tricolor[1]
-Penicillium tropicoides[3]
-Penicillium tropicum[3]
-Penicillium tsitsikammaense[3]
-Penicillium tubakianum[25]
-Penicillium tulipae[3]
-Penicillium turbatum[1]
-Penicillium turcosoconidiatum[3]
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium tanzanicum
+Penicillium tardochrysogenum
+Penicillium tardum
+Penicillium tarraconense
+Penicillium terrenum
+Penicillium terrigenum
+Penicillium thiersii
+Penicillium thomii
+Penicillium thymicola
+Penicillium tricolor
+Penicillium tropicoides
+Penicillium tropicum
+Penicillium tsitsikammaense
+Penicillium tubakianum
+Penicillium tulipae
+Penicillium turbatum
+Penicillium turcosoconidiatum
 </t>
         </is>
       </c>
@@ -1551,7 +1603,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1569,12 +1621,14 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium ubiquetum[3]
-Penicillium udagawae[1]
-Penicillium ulaiense[1]
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium ubiquetum
+Penicillium udagawae
+Penicillium ulaiense
 </t>
         </is>
       </c>
@@ -1585,7 +1639,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1603,28 +1657,30 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium vagum[3]
-Penicillium vancouverense[3]
-Penicillium vanbeymae[1]
-Penicillium vanderhammenii[3]
-Penicillium vanluykii[3]
-Penicillium vanoranjei[26]
-Penicillium variratens[27]
-Penicillium variabile[1]
-Penicillium vasconiae[1]
-Penicillium velutinum[1]
-Penicillium venetum[3]
-Penicillium verhagenii[3]
-Penicillium verrucisporum[27]
-Penicillium verrucosum[1]
-Penicillium verruculosum[1]
-Penicillium vinaceum[1]
-Penicillium virgatum[1]
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium vagum
+Penicillium vancouverense
+Penicillium vanbeymae
+Penicillium vanderhammenii
+Penicillium vanluykii
+Penicillium vanoranjei
+Penicillium variratens
+Penicillium variabile
+Penicillium vasconiae
+Penicillium velutinum
+Penicillium venetum
+Penicillium verhagenii
+Penicillium verrucisporum
+Penicillium verrucosum
+Penicillium verruculosum
+Penicillium vinaceum
+Penicillium virgatum
 Penicillium viridicatum
-Penicillium viticola[28]
+Penicillium viticola
 </t>
         </is>
       </c>
@@ -1635,7 +1691,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1653,16 +1709,18 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium waksmanii[1]
-Penicillium wellingtonense[3]
-Penicillium westlingii[1]
-Penicillium williamettense[29]
-Penicillium wisconsinense[29]
-Penicillium wollemiicola[29]
-Penicillium wotroi[3]
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium waksmanii
+Penicillium wellingtonense
+Penicillium westlingii
+Penicillium williamettense
+Penicillium wisconsinense
+Penicillium wollemiicola
+Penicillium wotroi
 </t>
         </is>
       </c>
@@ -1673,7 +1731,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1691,10 +1749,12 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium yarmokense[3]
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium yarmokense
 </t>
         </is>
       </c>
@@ -1705,7 +1765,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Penicillium</t>
+          <t>Liste_des_espèces_de_Penicillium</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1723,11 +1783,13 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Penicillium zhuangii[3]
-Penicillium zonatum[1]
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Penicillium zhuangii
+Penicillium zonatum
 </t>
         </is>
       </c>
